--- a/results.xlsx
+++ b/results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="HATS" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="41">
   <si>
     <t>Phase</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,6 +163,14 @@
     <t>14.06+E84</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>NYSE (O)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NYSE (N)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -218,7 +226,301 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="224">
+  <dxfs count="266">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2688,10 +2990,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:K92"/>
+  <dimension ref="A1:K113"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="K61" sqref="A32:K61"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D115" sqref="D115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2762,6 +3064,9 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2014</v>
+      </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -2785,6 +3090,9 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2019</v>
+      </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -2901,7 +3209,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
@@ -2926,6 +3234,9 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1962</v>
+      </c>
       <c r="B11" t="s">
         <v>5</v>
       </c>
@@ -2949,6 +3260,9 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1984</v>
+      </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
@@ -3090,6 +3404,9 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1994</v>
+      </c>
       <c r="B18" t="s">
         <v>5</v>
       </c>
@@ -3113,6 +3430,9 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1998</v>
+      </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
@@ -3235,10 +3555,10 @@
         <v>17</v>
       </c>
       <c r="C24">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="E24">
         <v>0.92</v>
@@ -3254,14 +3574,17 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2006</v>
+      </c>
       <c r="B25" t="s">
         <v>5</v>
       </c>
       <c r="C25">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="D25">
-        <v>-0.34</v>
+        <v>-0.26</v>
       </c>
       <c r="E25">
         <v>-0.3</v>
@@ -3277,14 +3600,17 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2010</v>
+      </c>
       <c r="B26" t="s">
         <v>6</v>
       </c>
       <c r="C26">
-        <v>-0.91</v>
+        <v>-0.22</v>
       </c>
       <c r="D26">
-        <v>-13.09</v>
+        <v>-9.64</v>
       </c>
       <c r="E26">
         <v>-11.46</v>
@@ -3304,10 +3630,10 @@
         <v>33</v>
       </c>
       <c r="C27" s="1">
-        <v>29.87</v>
+        <v>28.4</v>
       </c>
       <c r="D27" s="1">
-        <v>29.2</v>
+        <v>26.35</v>
       </c>
       <c r="E27" s="1">
         <v>27.55</v>
@@ -3327,10 +3653,10 @@
         <v>18</v>
       </c>
       <c r="C28" s="1">
-        <v>62.89</v>
+        <v>59.93</v>
       </c>
       <c r="D28" s="1">
-        <v>64.36</v>
+        <v>58.71</v>
       </c>
       <c r="E28" s="1">
         <v>64.42</v>
@@ -3350,10 +3676,10 @@
         <v>19</v>
       </c>
       <c r="C29" s="1">
-        <v>350.8</v>
+        <v>320.60000000000002</v>
       </c>
       <c r="D29" s="1">
-        <v>2.4</v>
+        <v>13.6</v>
       </c>
       <c r="E29" s="1">
         <v>0</v>
@@ -3373,10 +3699,10 @@
         <v>34</v>
       </c>
       <c r="C30">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="D30">
-        <v>0.68</v>
+        <v>0.75</v>
       </c>
       <c r="E30">
         <v>0.7</v>
@@ -3391,228 +3717,234 @@
         <v>7.45</v>
       </c>
     </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31">
+        <v>1.25</v>
+      </c>
+      <c r="D31">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="E31">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="F31">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="G31">
+        <v>1.26</v>
+      </c>
+      <c r="H31">
+        <v>1.35</v>
+      </c>
+    </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32">
+        <v>1984</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>1.35</v>
+      </c>
+      <c r="D32">
+        <v>0.77</v>
+      </c>
+      <c r="E32">
+        <v>0.65</v>
+      </c>
+      <c r="F32">
+        <v>0.75</v>
+      </c>
+      <c r="G32">
+        <v>1.36</v>
+      </c>
+      <c r="H32">
+        <v>1.65</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
-        <v>23</v>
-      </c>
-      <c r="D33" t="s">
-        <v>36</v>
-      </c>
-      <c r="E33" t="s">
-        <v>24</v>
-      </c>
-      <c r="F33" t="s">
-        <v>25</v>
-      </c>
-      <c r="G33" t="s">
-        <v>26</v>
-      </c>
-      <c r="H33" t="s">
-        <v>27</v>
-      </c>
-      <c r="I33" t="s">
-        <v>28</v>
-      </c>
-      <c r="J33" t="s">
-        <v>29</v>
-      </c>
-      <c r="K33" t="s">
-        <v>30</v>
+      <c r="A33">
+        <v>2010</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33">
+        <v>32.04</v>
+      </c>
+      <c r="D33">
+        <v>13.99</v>
+      </c>
+      <c r="E33">
+        <v>10.78</v>
+      </c>
+      <c r="F33">
+        <v>13.47</v>
+      </c>
+      <c r="G33">
+        <v>73.94</v>
+      </c>
+      <c r="H33">
+        <v>120.71</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>16</v>
-      </c>
       <c r="B34" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34">
-        <v>0.62</v>
-      </c>
-      <c r="D34">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="E34">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="F34">
-        <v>1.08</v>
-      </c>
-      <c r="G34">
-        <v>0.76</v>
-      </c>
-      <c r="H34">
-        <v>1.03</v>
+        <v>33</v>
+      </c>
+      <c r="C34" s="1">
+        <v>22.43</v>
+      </c>
+      <c r="D34" s="1">
+        <v>19.39</v>
+      </c>
+      <c r="E34" s="1">
+        <v>18.190000000000001</v>
+      </c>
+      <c r="F34" s="1">
+        <v>19.440000000000001</v>
+      </c>
+      <c r="G34" s="1">
+        <v>49.41</v>
+      </c>
+      <c r="H34" s="1">
+        <v>57.87</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35">
-        <v>-2.57</v>
-      </c>
-      <c r="D35">
-        <v>0.7</v>
-      </c>
-      <c r="E35">
-        <v>0.65</v>
-      </c>
-      <c r="F35">
-        <v>0.52</v>
-      </c>
-      <c r="G35">
-        <v>-0.88</v>
-      </c>
-      <c r="H35">
-        <v>0.38</v>
+        <v>18</v>
+      </c>
+      <c r="C35" s="1">
+        <v>62.84</v>
+      </c>
+      <c r="D35" s="1">
+        <v>64.44</v>
+      </c>
+      <c r="E35" s="1">
+        <v>54.74</v>
+      </c>
+      <c r="F35" s="1">
+        <v>64.430000000000007</v>
+      </c>
+      <c r="G35" s="1">
+        <v>77.09</v>
+      </c>
+      <c r="H35" s="1">
+        <v>91.98</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36">
-        <v>-53.43</v>
-      </c>
-      <c r="D36">
-        <v>11.82</v>
-      </c>
-      <c r="E36">
-        <v>8.5500000000000007</v>
-      </c>
-      <c r="F36">
-        <v>6.5</v>
-      </c>
-      <c r="G36">
-        <v>-39.71</v>
-      </c>
-      <c r="H36">
-        <v>6.98</v>
+        <v>19</v>
+      </c>
+      <c r="C36" s="1">
+        <v>332.4</v>
+      </c>
+      <c r="D36" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="G36" s="1">
+        <v>431.8</v>
+      </c>
+      <c r="H36" s="1">
+        <v>320.3</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>33</v>
-      </c>
-      <c r="C37" s="1">
-        <v>28.13</v>
-      </c>
-      <c r="D37" s="1">
-        <v>18.350000000000001</v>
-      </c>
-      <c r="E37" s="1">
-        <v>14.06</v>
-      </c>
-      <c r="F37" s="1">
-        <v>14.03</v>
-      </c>
-      <c r="G37" s="1">
-        <v>46.88</v>
-      </c>
-      <c r="H37" s="1">
-        <v>70.8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>18</v>
-      </c>
-      <c r="C38" s="1">
-        <v>97.71</v>
-      </c>
-      <c r="D38" s="1">
-        <v>28.56</v>
-      </c>
-      <c r="E38" s="1">
-        <v>21.77</v>
-      </c>
-      <c r="F38" s="1">
-        <v>21.09</v>
-      </c>
-      <c r="G38" s="1">
-        <v>91.37</v>
-      </c>
-      <c r="H38" s="1">
-        <v>53.04</v>
+        <v>34</v>
+      </c>
+      <c r="C37">
+        <v>748.52</v>
+      </c>
+      <c r="D37">
+        <v>22.61</v>
+      </c>
+      <c r="E37">
+        <v>12.07</v>
+      </c>
+      <c r="F37">
+        <v>21.62</v>
+      </c>
+      <c r="G37" s="2">
+        <v>706000</v>
+      </c>
+      <c r="H37" s="2">
+        <v>232000000</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>19</v>
-      </c>
-      <c r="C39" s="1">
-        <v>417.6</v>
-      </c>
-      <c r="D39" s="1">
-        <v>8.9</v>
-      </c>
-      <c r="E39" s="1">
-        <v>0</v>
-      </c>
-      <c r="F39" s="1">
-        <v>2.4</v>
-      </c>
-      <c r="G39" s="1">
-        <v>374.8</v>
-      </c>
-      <c r="H39" s="1">
-        <v>317.3</v>
+      <c r="A39" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>34</v>
-      </c>
-      <c r="C40">
-        <v>2.63E-2</v>
-      </c>
-      <c r="D40">
-        <v>1.7020999999999999</v>
-      </c>
-      <c r="E40">
-        <v>1.4781</v>
-      </c>
-      <c r="F40">
-        <v>1.3498000000000001</v>
-      </c>
-      <c r="G40">
-        <v>8.9800000000000005E-2</v>
-      </c>
-      <c r="H40">
-        <v>1.3791</v>
+      <c r="C40" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" t="s">
+        <v>36</v>
+      </c>
+      <c r="E40" t="s">
+        <v>24</v>
+      </c>
+      <c r="F40" t="s">
+        <v>25</v>
+      </c>
+      <c r="G40" t="s">
+        <v>26</v>
+      </c>
+      <c r="H40" t="s">
+        <v>27</v>
+      </c>
+      <c r="I40" t="s">
+        <v>28</v>
+      </c>
+      <c r="J40" t="s">
+        <v>29</v>
+      </c>
+      <c r="K40" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B41" t="s">
         <v>17</v>
       </c>
       <c r="C41">
-        <v>0.69</v>
+        <v>0.62</v>
       </c>
       <c r="D41">
-        <v>1.18</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="E41">
-        <v>1.1399999999999999</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="F41">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="G41">
-        <v>1.23</v>
+        <v>0.76</v>
       </c>
       <c r="H41">
-        <v>1.37</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -3620,22 +3952,22 @@
         <v>5</v>
       </c>
       <c r="C42">
-        <v>-2.14</v>
+        <v>-2.57</v>
       </c>
       <c r="D42">
-        <v>1.04</v>
+        <v>0.7</v>
       </c>
       <c r="E42">
-        <v>0.84</v>
+        <v>0.65</v>
       </c>
       <c r="F42">
-        <v>1.05</v>
+        <v>0.52</v>
       </c>
       <c r="G42">
-        <v>1.3</v>
+        <v>-0.88</v>
       </c>
       <c r="H42">
-        <v>1.81</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -3643,22 +3975,22 @@
         <v>6</v>
       </c>
       <c r="C43">
-        <v>-34.619999999999997</v>
+        <v>-53.43</v>
       </c>
       <c r="D43">
-        <v>14.28</v>
+        <v>11.82</v>
       </c>
       <c r="E43">
-        <v>12.34</v>
+        <v>8.5500000000000007</v>
       </c>
       <c r="F43">
-        <v>14.26</v>
+        <v>6.5</v>
       </c>
       <c r="G43">
-        <v>69.2</v>
+        <v>-39.71</v>
       </c>
       <c r="H43">
-        <v>131.43</v>
+        <v>6.98</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -3666,22 +3998,22 @@
         <v>33</v>
       </c>
       <c r="C44" s="1">
-        <v>19.010000000000002</v>
+        <v>28.13</v>
       </c>
       <c r="D44" s="1">
-        <v>13.73</v>
+        <v>18.350000000000001</v>
       </c>
       <c r="E44" s="1">
-        <v>15.22</v>
+        <v>14.06</v>
       </c>
       <c r="F44" s="1">
-        <v>13.55</v>
+        <v>14.03</v>
       </c>
       <c r="G44" s="1">
-        <v>49.49</v>
+        <v>46.88</v>
       </c>
       <c r="H44" s="1">
-        <v>54.53</v>
+        <v>70.8</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -3689,22 +4021,22 @@
         <v>18</v>
       </c>
       <c r="C45" s="1">
-        <v>99.99</v>
+        <v>97.71</v>
       </c>
       <c r="D45" s="1">
-        <v>36.950000000000003</v>
+        <v>28.56</v>
       </c>
       <c r="E45" s="1">
-        <v>42.22</v>
+        <v>21.77</v>
       </c>
       <c r="F45" s="1">
-        <v>37.549999999999997</v>
+        <v>21.09</v>
       </c>
       <c r="G45" s="1">
-        <v>79.28</v>
+        <v>91.37</v>
       </c>
       <c r="H45" s="1">
-        <v>59.99</v>
+        <v>53.04</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -3712,22 +4044,22 @@
         <v>19</v>
       </c>
       <c r="C46" s="1">
-        <v>367.8</v>
+        <v>417.6</v>
       </c>
       <c r="D46" s="1">
-        <v>7.8</v>
+        <v>8.9</v>
       </c>
       <c r="E46" s="1">
         <v>0</v>
       </c>
       <c r="F46" s="1">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="G46" s="1">
-        <v>437.4</v>
+        <v>374.8</v>
       </c>
       <c r="H46" s="1">
-        <v>349.4</v>
+        <v>317.3</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -3735,761 +4067,767 @@
         <v>34</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>2.63E-2</v>
       </c>
       <c r="D47">
-        <v>16.55</v>
+        <v>1.7020999999999999</v>
       </c>
       <c r="E47">
-        <v>11.83</v>
+        <v>1.4781</v>
       </c>
       <c r="F47">
-        <v>16.96</v>
-      </c>
-      <c r="G47" s="2">
-        <v>70800</v>
-      </c>
-      <c r="H47" s="2">
-        <v>54700000</v>
+        <v>1.3498000000000001</v>
+      </c>
+      <c r="G47">
+        <v>8.9800000000000005E-2</v>
+      </c>
+      <c r="H47">
+        <v>1.3791</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B48" t="s">
         <v>17</v>
       </c>
       <c r="C48">
-        <v>0.79</v>
+        <v>0.69</v>
       </c>
       <c r="D48">
-        <v>1.1599999999999999</v>
+        <v>1.18</v>
       </c>
       <c r="E48">
-        <v>1.19</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="F48">
-        <v>1.1499999999999999</v>
+        <v>1.18</v>
       </c>
       <c r="G48">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="H48">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>5</v>
       </c>
       <c r="C49">
-        <v>-1.1200000000000001</v>
+        <v>-2.14</v>
       </c>
       <c r="D49">
-        <v>0.9</v>
+        <v>1.04</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="F49">
-        <v>0.81</v>
+        <v>1.05</v>
       </c>
       <c r="G49">
-        <v>0.41</v>
+        <v>1.3</v>
       </c>
       <c r="H49">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>6</v>
       </c>
       <c r="C50">
-        <v>-27.66</v>
+        <v>-34.619999999999997</v>
       </c>
       <c r="D50">
-        <v>12.17</v>
+        <v>14.28</v>
       </c>
       <c r="E50">
-        <v>13.42</v>
+        <v>12.34</v>
       </c>
       <c r="F50">
-        <v>10.59</v>
+        <v>14.26</v>
       </c>
       <c r="G50">
-        <v>4.43</v>
+        <v>69.2</v>
       </c>
       <c r="H50">
-        <v>-17.88</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+        <v>131.43</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>33</v>
       </c>
       <c r="C51" s="1">
-        <v>25.84</v>
+        <v>19.010000000000002</v>
       </c>
       <c r="D51" s="1">
-        <v>13.82</v>
+        <v>13.73</v>
       </c>
       <c r="E51" s="1">
-        <v>13.47</v>
+        <v>15.22</v>
       </c>
       <c r="F51" s="1">
-        <v>13.51</v>
+        <v>13.55</v>
       </c>
       <c r="G51" s="1">
-        <v>75.91</v>
+        <v>49.49</v>
       </c>
       <c r="H51" s="1">
-        <v>99.86</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+        <v>54.53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>18</v>
       </c>
       <c r="C52" s="1">
-        <v>70.92</v>
+        <v>99.99</v>
       </c>
       <c r="D52" s="1">
-        <v>24.51</v>
+        <v>36.950000000000003</v>
       </c>
       <c r="E52" s="1">
-        <v>26.69</v>
+        <v>42.22</v>
       </c>
       <c r="F52" s="1">
-        <v>33.93</v>
+        <v>37.549999999999997</v>
       </c>
       <c r="G52" s="1">
-        <v>82.62</v>
+        <v>79.28</v>
       </c>
       <c r="H52" s="1">
-        <v>94.49</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+        <v>59.99</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>19</v>
       </c>
       <c r="C53" s="1">
-        <v>394.8</v>
+        <v>367.8</v>
       </c>
       <c r="D53" s="1">
-        <v>15.9</v>
+        <v>7.8</v>
       </c>
       <c r="E53" s="1">
         <v>0</v>
       </c>
       <c r="F53" s="1">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="G53" s="1">
-        <v>397.6</v>
+        <v>437.4</v>
       </c>
       <c r="H53" s="1">
-        <v>330.1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+        <v>349.4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>34</v>
       </c>
       <c r="C54">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>1.51</v>
+        <v>16.55</v>
       </c>
       <c r="E54">
-        <v>1.6148</v>
+        <v>11.83</v>
       </c>
       <c r="F54">
-        <v>1.4669000000000001</v>
-      </c>
-      <c r="G54">
-        <v>1.1792</v>
-      </c>
-      <c r="H54">
-        <v>0.47239999999999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+        <v>16.96</v>
+      </c>
+      <c r="G54" s="2">
+        <v>70800</v>
+      </c>
+      <c r="H54" s="2">
+        <v>54700000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B55" t="s">
         <v>17</v>
       </c>
       <c r="C55">
-        <v>0.57999999999999996</v>
+        <v>0.79</v>
       </c>
       <c r="D55">
-        <v>0.91</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="E55">
-        <v>0.92</v>
+        <v>1.19</v>
       </c>
       <c r="F55">
-        <v>0.93</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="G55">
-        <v>0.84</v>
+        <v>1.01</v>
       </c>
       <c r="H55">
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>5</v>
       </c>
       <c r="C56">
-        <v>-2.84</v>
+        <v>-1.1200000000000001</v>
       </c>
       <c r="D56">
-        <v>-0.36</v>
+        <v>0.9</v>
       </c>
       <c r="E56">
-        <v>-0.3</v>
+        <v>1</v>
       </c>
       <c r="F56">
-        <v>-0.28999999999999998</v>
+        <v>0.81</v>
       </c>
       <c r="G56">
-        <v>-0.72</v>
+        <v>0.41</v>
       </c>
       <c r="H56">
-        <v>-0.17</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>6</v>
       </c>
       <c r="C57">
-        <v>-58.82</v>
+        <v>-27.66</v>
       </c>
       <c r="D57">
-        <v>-13.69</v>
+        <v>12.17</v>
       </c>
       <c r="E57">
-        <v>-11.46</v>
+        <v>13.42</v>
       </c>
       <c r="F57">
-        <v>-11.63</v>
+        <v>10.59</v>
       </c>
       <c r="G57">
-        <v>-31.41</v>
+        <v>4.43</v>
       </c>
       <c r="H57">
-        <v>-15.62</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+        <v>-17.88</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>33</v>
       </c>
       <c r="C58" s="1">
-        <v>29.68</v>
+        <v>25.84</v>
       </c>
       <c r="D58" s="1">
-        <v>29.2</v>
+        <v>13.82</v>
       </c>
       <c r="E58" s="1">
-        <v>27.55</v>
+        <v>13.47</v>
       </c>
       <c r="F58" s="1">
-        <v>28.63</v>
+        <v>13.51</v>
       </c>
       <c r="G58" s="1">
-        <v>40.659999999999997</v>
+        <v>75.91</v>
       </c>
       <c r="H58" s="1">
-        <v>43.62</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+        <v>99.86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>18</v>
       </c>
       <c r="C59" s="1">
-        <v>91.52</v>
+        <v>70.92</v>
       </c>
       <c r="D59" s="1">
-        <v>64.72</v>
+        <v>24.51</v>
       </c>
       <c r="E59" s="1">
-        <v>64.42</v>
+        <v>26.69</v>
       </c>
       <c r="F59" s="1">
-        <v>64.72</v>
+        <v>33.93</v>
       </c>
       <c r="G59" s="1">
-        <v>77.53</v>
+        <v>82.62</v>
       </c>
       <c r="H59" s="1">
-        <v>71.98</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+        <v>94.49</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>19</v>
       </c>
       <c r="C60" s="1">
-        <v>350.8</v>
+        <v>394.8</v>
       </c>
       <c r="D60" s="1">
-        <v>2.4</v>
+        <v>15.9</v>
       </c>
       <c r="E60" s="1">
         <v>0</v>
       </c>
       <c r="F60" s="1">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="G60" s="1">
-        <v>448.4</v>
+        <v>397.6</v>
       </c>
       <c r="H60" s="1">
-        <v>344.9</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+        <v>330.1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>34</v>
       </c>
       <c r="C61">
-        <v>0.09</v>
+        <v>0.31</v>
       </c>
       <c r="D61">
-        <v>0.66</v>
+        <v>1.51</v>
       </c>
       <c r="E61">
+        <v>1.6148</v>
+      </c>
+      <c r="F61">
+        <v>1.4669000000000001</v>
+      </c>
+      <c r="G61">
+        <v>1.1792</v>
+      </c>
+      <c r="H61">
+        <v>0.47239999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>22</v>
+      </c>
+      <c r="B62" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62">
+        <v>0.6</v>
+      </c>
+      <c r="D62">
+        <v>0.91</v>
+      </c>
+      <c r="E62">
+        <v>0.92</v>
+      </c>
+      <c r="F62">
+        <v>0.93</v>
+      </c>
+      <c r="G62">
+        <v>0.84</v>
+      </c>
+      <c r="H62">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63">
+        <v>-2.7</v>
+      </c>
+      <c r="D63">
+        <v>-0.39</v>
+      </c>
+      <c r="E63">
+        <v>-0.3</v>
+      </c>
+      <c r="F63">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="G63">
+        <v>-0.72</v>
+      </c>
+      <c r="H63">
+        <v>-0.17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64">
+        <v>-55.27</v>
+      </c>
+      <c r="D64">
+        <v>-12.75</v>
+      </c>
+      <c r="E64">
+        <v>-11.46</v>
+      </c>
+      <c r="F64">
+        <v>-11.63</v>
+      </c>
+      <c r="G64">
+        <v>-31.41</v>
+      </c>
+      <c r="H64">
+        <v>-15.62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>33</v>
+      </c>
+      <c r="C65" s="1">
+        <v>28.27</v>
+      </c>
+      <c r="D65" s="1">
+        <v>26.27</v>
+      </c>
+      <c r="E65" s="1">
+        <v>27.55</v>
+      </c>
+      <c r="F65" s="1">
+        <v>28.63</v>
+      </c>
+      <c r="G65" s="1">
+        <v>40.659999999999997</v>
+      </c>
+      <c r="H65" s="1">
+        <v>43.62</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>18</v>
+      </c>
+      <c r="C66" s="1">
+        <v>89.3</v>
+      </c>
+      <c r="D66" s="1">
+        <v>60.54</v>
+      </c>
+      <c r="E66" s="1">
+        <v>64.42</v>
+      </c>
+      <c r="F66" s="1">
+        <v>64.72</v>
+      </c>
+      <c r="G66" s="1">
+        <v>77.53</v>
+      </c>
+      <c r="H66" s="1">
+        <v>71.98</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>19</v>
+      </c>
+      <c r="C67" s="1">
+        <v>320.60000000000002</v>
+      </c>
+      <c r="D67" s="1">
+        <v>13.6</v>
+      </c>
+      <c r="E67" s="1">
+        <v>0</v>
+      </c>
+      <c r="F67" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="G67" s="1">
+        <v>448.4</v>
+      </c>
+      <c r="H67" s="1">
+        <v>344.9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>34</v>
+      </c>
+      <c r="C68">
+        <v>0.11</v>
+      </c>
+      <c r="D68">
+        <v>0.68</v>
+      </c>
+      <c r="E68">
         <v>0.7</v>
       </c>
-      <c r="F61">
+      <c r="F68">
         <v>0.69</v>
       </c>
-      <c r="G61">
+      <c r="G68">
         <v>0.33</v>
       </c>
-      <c r="H61">
+      <c r="H68">
         <v>0.61</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>40</v>
+      </c>
+      <c r="B69" t="s">
+        <v>17</v>
+      </c>
+      <c r="C69">
+        <v>0.64</v>
+      </c>
+      <c r="D69">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E69">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="F69">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="G69">
+        <v>0.81</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>1984</v>
+      </c>
+      <c r="B70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70">
+        <v>-2.36</v>
+      </c>
+      <c r="D70">
+        <v>0.73</v>
+      </c>
+      <c r="E70">
+        <v>0.65</v>
+      </c>
+      <c r="F70">
+        <v>0.71</v>
+      </c>
+      <c r="G70">
+        <v>-0.81</v>
+      </c>
+      <c r="H70">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>2010</v>
+      </c>
+      <c r="B71" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71">
+        <v>-42.51</v>
+      </c>
+      <c r="D71">
+        <v>13.11</v>
+      </c>
+      <c r="E71">
+        <v>10.78</v>
+      </c>
+      <c r="F71">
+        <v>12.58</v>
+      </c>
+      <c r="G71">
+        <v>-39.630000000000003</v>
+      </c>
+      <c r="H71">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>33</v>
+      </c>
+      <c r="C72" s="1">
+        <v>22.35</v>
+      </c>
+      <c r="D72" s="1">
+        <v>19.39</v>
+      </c>
+      <c r="E72" s="1">
+        <v>18.190000000000001</v>
+      </c>
+      <c r="F72" s="1">
+        <v>19.43</v>
+      </c>
+      <c r="G72" s="1">
+        <v>48.12</v>
+      </c>
+      <c r="H72" s="1">
+        <v>56.36</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>18</v>
+      </c>
+      <c r="C73" s="1">
+        <v>100</v>
+      </c>
+      <c r="D73" s="1">
+        <v>65.010000000000005</v>
+      </c>
+      <c r="E73" s="1">
+        <v>54.74</v>
+      </c>
+      <c r="F73" s="1">
+        <v>65</v>
+      </c>
+      <c r="G73" s="1">
+        <v>100</v>
+      </c>
+      <c r="H73" s="1">
+        <v>99.56</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>19</v>
+      </c>
+      <c r="C74" s="1">
+        <v>332.4</v>
+      </c>
+      <c r="D74" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="E74" s="1">
+        <v>0</v>
+      </c>
+      <c r="F74" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="G74" s="1">
+        <v>431.8</v>
+      </c>
+      <c r="H74" s="1">
+        <v>320.3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>34</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>18.77</v>
+      </c>
+      <c r="E75">
+        <v>12.07</v>
+      </c>
+      <c r="F75">
+        <v>17.87</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C64" t="s">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
         <v>23</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D78" t="s">
         <v>36</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E78" t="s">
         <v>24</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F78" t="s">
         <v>25</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G78" t="s">
         <v>26</v>
       </c>
-      <c r="H64" t="s">
+      <c r="H78" t="s">
         <v>27</v>
       </c>
-      <c r="I64" t="s">
+      <c r="I78" t="s">
         <v>28</v>
       </c>
-      <c r="J64" t="s">
+      <c r="J78" t="s">
         <v>29</v>
       </c>
-      <c r="K64" t="s">
+      <c r="K78" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>16</v>
-      </c>
-      <c r="B65" t="s">
-        <v>17</v>
-      </c>
-      <c r="C65">
-        <v>0.33</v>
-      </c>
-      <c r="D65">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="E65">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="F65">
-        <v>1.07</v>
-      </c>
-      <c r="G65">
-        <v>0.47</v>
-      </c>
-      <c r="H65">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>5</v>
-      </c>
-      <c r="C66">
-        <v>-6.32</v>
-      </c>
-      <c r="D66">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="E66">
-        <v>0.65</v>
-      </c>
-      <c r="F66">
-        <v>0.47</v>
-      </c>
-      <c r="G66">
-        <v>-2.85</v>
-      </c>
-      <c r="H66">
-        <v>-0.7</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>6</v>
-      </c>
-      <c r="C67">
-        <v>-83.67</v>
-      </c>
-      <c r="D67">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="E67">
-        <v>8.5500000000000007</v>
-      </c>
-      <c r="F67">
-        <v>5.81</v>
-      </c>
-      <c r="G67">
-        <v>-75.650000000000006</v>
-      </c>
-      <c r="H67">
-        <v>-49.66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>33</v>
-      </c>
-      <c r="C68" s="1">
-        <v>27.96</v>
-      </c>
-      <c r="D68" s="1">
-        <v>18.34</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F68" s="1">
-        <v>14.03</v>
-      </c>
-      <c r="G68" s="1">
-        <v>46.27</v>
-      </c>
-      <c r="H68" s="1">
-        <v>69.95</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
-        <v>18</v>
-      </c>
-      <c r="C69" s="1">
-        <v>99.98</v>
-      </c>
-      <c r="D69" s="1">
-        <v>28.8</v>
-      </c>
-      <c r="E69" s="1">
-        <v>21.77</v>
-      </c>
-      <c r="F69" s="1">
-        <v>21.24</v>
-      </c>
-      <c r="G69" s="1">
-        <v>99.88</v>
-      </c>
-      <c r="H69" s="1">
-        <v>96.48</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>19</v>
-      </c>
-      <c r="C70" s="1">
-        <v>417.6</v>
-      </c>
-      <c r="D70" s="1">
-        <v>8.9</v>
-      </c>
-      <c r="E70" s="1">
-        <v>0</v>
-      </c>
-      <c r="F70" s="1">
-        <v>2.4</v>
-      </c>
-      <c r="G70" s="1">
-        <v>374.8</v>
-      </c>
-      <c r="H70" s="1">
-        <v>317.3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
-        <v>34</v>
-      </c>
-      <c r="C71">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="D71">
-        <v>1.5276000000000001</v>
-      </c>
-      <c r="E71">
-        <v>1.4781</v>
-      </c>
-      <c r="F71">
-        <v>1.3083</v>
-      </c>
-      <c r="G71">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="H71">
-        <v>3.8100000000000002E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>20</v>
-      </c>
-      <c r="B72" t="s">
-        <v>17</v>
-      </c>
-      <c r="C72">
-        <v>0.32</v>
-      </c>
-      <c r="D72">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="E72">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="F72">
-        <v>1.17</v>
-      </c>
-      <c r="G72">
-        <v>0.81</v>
-      </c>
-      <c r="H72">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
-        <v>5</v>
-      </c>
-      <c r="C73">
-        <v>-6.88</v>
-      </c>
-      <c r="D73">
-        <v>0.89</v>
-      </c>
-      <c r="E73">
-        <v>0.84</v>
-      </c>
-      <c r="F73">
-        <v>1</v>
-      </c>
-      <c r="G73">
-        <v>-0.89</v>
-      </c>
-      <c r="H73">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
-        <v>6</v>
-      </c>
-      <c r="C74">
-        <v>-74.099999999999994</v>
-      </c>
-      <c r="D74">
-        <v>12.04</v>
-      </c>
-      <c r="E74">
-        <v>12.34</v>
-      </c>
-      <c r="F74">
-        <v>13.41</v>
-      </c>
-      <c r="G74">
-        <v>-42.1</v>
-      </c>
-      <c r="H74">
-        <v>-1.65</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
-        <v>33</v>
-      </c>
-      <c r="C75" s="1">
-        <v>19.32</v>
-      </c>
-      <c r="D75" s="1">
-        <v>13.78</v>
-      </c>
-      <c r="E75" s="1">
-        <v>15.22</v>
-      </c>
-      <c r="F75" s="1">
-        <v>13.54</v>
-      </c>
-      <c r="G75" s="1">
-        <v>48.35</v>
-      </c>
-      <c r="H75" s="1">
-        <v>53.03</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
-        <v>18</v>
-      </c>
-      <c r="C76" s="1">
-        <v>100</v>
-      </c>
-      <c r="D76" s="1">
-        <v>41.05</v>
-      </c>
-      <c r="E76" s="1">
-        <v>42.22</v>
-      </c>
-      <c r="F76" s="1">
-        <v>38.49</v>
-      </c>
-      <c r="G76" s="1">
-        <v>100</v>
-      </c>
-      <c r="H76" s="1">
-        <v>99.32</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
-        <v>19</v>
-      </c>
-      <c r="C77" s="1">
-        <v>367.8</v>
-      </c>
-      <c r="D77" s="1">
-        <v>7.8</v>
-      </c>
-      <c r="E77" s="1">
-        <v>0</v>
-      </c>
-      <c r="F77" s="1">
-        <v>2.9</v>
-      </c>
-      <c r="G77" s="1">
-        <v>437.4</v>
-      </c>
-      <c r="H77" s="1">
-        <v>349.4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
-        <v>34</v>
-      </c>
-      <c r="C78">
-        <v>0</v>
-      </c>
-      <c r="D78">
-        <v>10.92</v>
-      </c>
-      <c r="E78">
-        <v>11.83</v>
-      </c>
-      <c r="F78">
-        <v>14.48</v>
-      </c>
-      <c r="G78">
-        <v>0</v>
-      </c>
-      <c r="H78">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>21</v>
       </c>
       <c r="B79" t="s">
         <v>17</v>
       </c>
       <c r="C79">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="D79">
-        <v>1.1000000000000001</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="E79">
-        <v>1.19</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="F79">
-        <v>1.1299999999999999</v>
+        <v>1.07</v>
       </c>
       <c r="G79">
-        <v>0.74</v>
+        <v>0.47</v>
       </c>
       <c r="H79">
         <v>0.78</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>5</v>
       </c>
       <c r="C80">
-        <v>-4.93</v>
+        <v>-6.32</v>
       </c>
       <c r="D80">
-        <v>0.6</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>0.65</v>
       </c>
       <c r="F80">
-        <v>0.74</v>
+        <v>0.47</v>
       </c>
       <c r="G80">
-        <v>-0.89</v>
+        <v>-2.85</v>
       </c>
       <c r="H80">
-        <v>-0.55000000000000004</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -4497,22 +4835,22 @@
         <v>6</v>
       </c>
       <c r="C81">
-        <v>-73.209999999999994</v>
+        <v>-83.67</v>
       </c>
       <c r="D81">
-        <v>7.76</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="E81">
-        <v>13.42</v>
+        <v>8.5500000000000007</v>
       </c>
       <c r="F81">
-        <v>9.5299999999999994</v>
+        <v>5.81</v>
       </c>
       <c r="G81">
-        <v>-60.29</v>
+        <v>-75.650000000000006</v>
       </c>
       <c r="H81">
-        <v>-63</v>
+        <v>-49.66</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -4520,22 +4858,22 @@
         <v>33</v>
       </c>
       <c r="C82" s="1">
-        <v>25.94</v>
+        <v>27.96</v>
       </c>
       <c r="D82" s="1">
-        <v>13.89</v>
-      </c>
-      <c r="E82" s="1">
-        <v>13.47</v>
+        <v>18.34</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="F82" s="1">
-        <v>13.51</v>
+        <v>14.03</v>
       </c>
       <c r="G82" s="1">
-        <v>74.84</v>
+        <v>46.27</v>
       </c>
       <c r="H82" s="1">
-        <v>98.38</v>
+        <v>69.95</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -4543,22 +4881,22 @@
         <v>18</v>
       </c>
       <c r="C83" s="1">
-        <v>99.09</v>
+        <v>99.98</v>
       </c>
       <c r="D83" s="1">
-        <v>25.41</v>
+        <v>28.8</v>
       </c>
       <c r="E83" s="1">
-        <v>26.69</v>
+        <v>21.77</v>
       </c>
       <c r="F83" s="1">
-        <v>34.17</v>
+        <v>21.24</v>
       </c>
       <c r="G83" s="1">
-        <v>97.83</v>
+        <v>99.88</v>
       </c>
       <c r="H83" s="1">
-        <v>98.73</v>
+        <v>96.48</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -4566,22 +4904,22 @@
         <v>19</v>
       </c>
       <c r="C84" s="1">
-        <v>394.8</v>
+        <v>417.6</v>
       </c>
       <c r="D84" s="1">
-        <v>15.9</v>
+        <v>8.9</v>
       </c>
       <c r="E84" s="1">
         <v>0</v>
       </c>
       <c r="F84" s="1">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="G84" s="1">
-        <v>397.6</v>
+        <v>374.8</v>
       </c>
       <c r="H84" s="1">
-        <v>330.1</v>
+        <v>317.3</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -4589,48 +4927,48 @@
         <v>34</v>
       </c>
       <c r="C85">
-        <v>0.01</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="D85">
-        <v>1.31</v>
+        <v>1.5276000000000001</v>
       </c>
       <c r="E85">
-        <v>1.6148</v>
+        <v>1.4781</v>
       </c>
       <c r="F85">
-        <v>1.4140999999999999</v>
+        <v>1.3083</v>
       </c>
       <c r="G85">
-        <v>2.9700000000000001E-2</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="H85">
-        <v>2.2700000000000001E-2</v>
+        <v>3.8100000000000002E-2</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B86" t="s">
         <v>17</v>
       </c>
       <c r="C86">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="D86">
-        <v>0.91</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="E86">
-        <v>0.92</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="F86">
-        <v>0.92</v>
+        <v>1.17</v>
       </c>
       <c r="G86">
-        <v>0.51</v>
+        <v>0.81</v>
       </c>
       <c r="H86">
-        <v>0.64</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -4638,22 +4976,22 @@
         <v>5</v>
       </c>
       <c r="C87">
-        <v>-5.81</v>
+        <v>-6.88</v>
       </c>
       <c r="D87">
-        <v>-0.38</v>
+        <v>0.89</v>
       </c>
       <c r="E87">
-        <v>-0.3</v>
+        <v>0.84</v>
       </c>
       <c r="F87">
-        <v>-0.31</v>
+        <v>1</v>
       </c>
       <c r="G87">
-        <v>-3.55</v>
+        <v>-0.89</v>
       </c>
       <c r="H87">
-        <v>-2.2000000000000002</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -4661,22 +4999,22 @@
         <v>6</v>
       </c>
       <c r="C88">
-        <v>-82.95</v>
+        <v>-74.099999999999994</v>
       </c>
       <c r="D88">
-        <v>-14.29</v>
+        <v>12.04</v>
       </c>
       <c r="E88">
-        <v>-11.46</v>
+        <v>12.34</v>
       </c>
       <c r="F88">
-        <v>-12.23</v>
+        <v>13.41</v>
       </c>
       <c r="G88">
-        <v>-77.44</v>
+        <v>-42.1</v>
       </c>
       <c r="H88">
-        <v>-64.11</v>
+        <v>-1.65</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -4684,22 +5022,22 @@
         <v>33</v>
       </c>
       <c r="C89" s="1">
-        <v>29.58</v>
+        <v>19.32</v>
       </c>
       <c r="D89" s="1">
-        <v>29.2</v>
+        <v>13.78</v>
       </c>
       <c r="E89" s="1">
-        <v>27.55</v>
+        <v>15.22</v>
       </c>
       <c r="F89" s="1">
-        <v>28.63</v>
+        <v>13.54</v>
       </c>
       <c r="G89" s="1">
-        <v>39.619999999999997</v>
+        <v>48.35</v>
       </c>
       <c r="H89" s="1">
-        <v>42.45</v>
+        <v>53.03</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -4707,22 +5045,22 @@
         <v>18</v>
       </c>
       <c r="C90" s="1">
-        <v>99.26</v>
+        <v>100</v>
       </c>
       <c r="D90" s="1">
-        <v>65.069999999999993</v>
+        <v>41.05</v>
       </c>
       <c r="E90" s="1">
-        <v>64.42</v>
+        <v>42.22</v>
       </c>
       <c r="F90" s="1">
-        <v>65.069999999999993</v>
+        <v>38.49</v>
       </c>
       <c r="G90" s="1">
-        <v>98.75</v>
+        <v>100</v>
       </c>
       <c r="H90" s="1">
-        <v>95.26</v>
+        <v>99.32</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -4730,22 +5068,22 @@
         <v>19</v>
       </c>
       <c r="C91" s="1">
-        <v>350.8</v>
+        <v>367.8</v>
       </c>
       <c r="D91" s="1">
-        <v>2.4</v>
+        <v>7.8</v>
       </c>
       <c r="E91" s="1">
         <v>0</v>
       </c>
       <c r="F91" s="1">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="G91" s="1">
-        <v>448.4</v>
+        <v>437.4</v>
       </c>
       <c r="H91" s="1">
-        <v>344.9</v>
+        <v>349.4</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -4753,359 +5091,941 @@
         <v>34</v>
       </c>
       <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>10.92</v>
+      </c>
+      <c r="E92">
+        <v>11.83</v>
+      </c>
+      <c r="F92">
+        <v>14.48</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>21</v>
+      </c>
+      <c r="B93" t="s">
+        <v>17</v>
+      </c>
+      <c r="C93">
+        <v>0.4</v>
+      </c>
+      <c r="D93">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E93">
+        <v>1.19</v>
+      </c>
+      <c r="F93">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="G93">
+        <v>0.74</v>
+      </c>
+      <c r="H93">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94">
+        <v>-4.93</v>
+      </c>
+      <c r="D94">
+        <v>0.6</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94">
+        <v>0.74</v>
+      </c>
+      <c r="G94">
+        <v>-0.89</v>
+      </c>
+      <c r="H94">
+        <v>-0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>6</v>
+      </c>
+      <c r="C95">
+        <v>-73.209999999999994</v>
+      </c>
+      <c r="D95">
+        <v>7.76</v>
+      </c>
+      <c r="E95">
+        <v>13.42</v>
+      </c>
+      <c r="F95">
+        <v>9.5299999999999994</v>
+      </c>
+      <c r="G95">
+        <v>-60.29</v>
+      </c>
+      <c r="H95">
+        <v>-63</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>33</v>
+      </c>
+      <c r="C96" s="1">
+        <v>25.94</v>
+      </c>
+      <c r="D96" s="1">
+        <v>13.89</v>
+      </c>
+      <c r="E96" s="1">
+        <v>13.47</v>
+      </c>
+      <c r="F96" s="1">
+        <v>13.51</v>
+      </c>
+      <c r="G96" s="1">
+        <v>74.84</v>
+      </c>
+      <c r="H96" s="1">
+        <v>98.38</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>18</v>
+      </c>
+      <c r="C97" s="1">
+        <v>99.09</v>
+      </c>
+      <c r="D97" s="1">
+        <v>25.41</v>
+      </c>
+      <c r="E97" s="1">
+        <v>26.69</v>
+      </c>
+      <c r="F97" s="1">
+        <v>34.17</v>
+      </c>
+      <c r="G97" s="1">
+        <v>97.83</v>
+      </c>
+      <c r="H97" s="1">
+        <v>98.73</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C98" s="1">
+        <v>394.8</v>
+      </c>
+      <c r="D98" s="1">
+        <v>15.9</v>
+      </c>
+      <c r="E98" s="1">
+        <v>0</v>
+      </c>
+      <c r="F98" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="G98" s="1">
+        <v>397.6</v>
+      </c>
+      <c r="H98" s="1">
+        <v>330.1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>34</v>
+      </c>
+      <c r="C99">
         <v>0.01</v>
       </c>
-      <c r="D92">
+      <c r="D99">
+        <v>1.31</v>
+      </c>
+      <c r="E99">
+        <v>1.6148</v>
+      </c>
+      <c r="F99">
+        <v>1.4140999999999999</v>
+      </c>
+      <c r="G99">
+        <v>2.9700000000000001E-2</v>
+      </c>
+      <c r="H99">
+        <v>2.2700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>22</v>
+      </c>
+      <c r="B100" t="s">
+        <v>17</v>
+      </c>
+      <c r="C100">
+        <v>0.36</v>
+      </c>
+      <c r="D100">
+        <v>0.89</v>
+      </c>
+      <c r="E100">
+        <v>0.92</v>
+      </c>
+      <c r="F100">
+        <v>0.92</v>
+      </c>
+      <c r="G100">
+        <v>0.51</v>
+      </c>
+      <c r="H100">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101">
+        <v>-5.55</v>
+      </c>
+      <c r="D101">
+        <v>-0.53</v>
+      </c>
+      <c r="E101">
+        <v>-0.3</v>
+      </c>
+      <c r="F101">
+        <v>-0.31</v>
+      </c>
+      <c r="G101">
+        <v>-3.55</v>
+      </c>
+      <c r="H101">
+        <v>-2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>6</v>
+      </c>
+      <c r="C102">
+        <v>-80</v>
+      </c>
+      <c r="D102">
+        <v>-15.75</v>
+      </c>
+      <c r="E102">
+        <v>-11.46</v>
+      </c>
+      <c r="F102">
+        <v>-12.23</v>
+      </c>
+      <c r="G102">
+        <v>-77.44</v>
+      </c>
+      <c r="H102">
+        <v>-64.11</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>33</v>
+      </c>
+      <c r="C103" s="1">
+        <v>28.22</v>
+      </c>
+      <c r="D103" s="1">
+        <v>26.21</v>
+      </c>
+      <c r="E103" s="1">
+        <v>27.55</v>
+      </c>
+      <c r="F103" s="1">
+        <v>28.63</v>
+      </c>
+      <c r="G103" s="1">
+        <v>39.619999999999997</v>
+      </c>
+      <c r="H103" s="1">
+        <v>42.45</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>18</v>
+      </c>
+      <c r="C104" s="1">
+        <v>98.85</v>
+      </c>
+      <c r="D104" s="1">
+        <v>62.45</v>
+      </c>
+      <c r="E104" s="1">
+        <v>64.42</v>
+      </c>
+      <c r="F104" s="1">
+        <v>65.069999999999993</v>
+      </c>
+      <c r="G104" s="1">
+        <v>98.75</v>
+      </c>
+      <c r="H104" s="1">
+        <v>95.26</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>19</v>
+      </c>
+      <c r="C105" s="1">
+        <v>320.60000000000002</v>
+      </c>
+      <c r="D105" s="1">
+        <v>13.6</v>
+      </c>
+      <c r="E105" s="1">
+        <v>0</v>
+      </c>
+      <c r="F105" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="G105" s="1">
+        <v>448.4</v>
+      </c>
+      <c r="H105" s="1">
+        <v>344.9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>34</v>
+      </c>
+      <c r="C106">
+        <v>0.01</v>
+      </c>
+      <c r="D106">
+        <v>0.62</v>
+      </c>
+      <c r="E106">
+        <v>0.7</v>
+      </c>
+      <c r="F106">
+        <v>0.68</v>
+      </c>
+      <c r="G106">
+        <v>0.01</v>
+      </c>
+      <c r="H106">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>40</v>
+      </c>
+      <c r="B107" t="s">
+        <v>17</v>
+      </c>
+      <c r="C107">
+        <v>0.33</v>
+      </c>
+      <c r="D107">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="E107">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="F107">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="G107">
+        <v>0.52</v>
+      </c>
+      <c r="H107">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>1984</v>
+      </c>
+      <c r="B108" t="s">
+        <v>5</v>
+      </c>
+      <c r="C108">
+        <v>-6.08</v>
+      </c>
+      <c r="D108">
+        <v>0.69</v>
+      </c>
+      <c r="E108">
         <v>0.65</v>
       </c>
-      <c r="E92">
-        <v>0.7</v>
-      </c>
-      <c r="F92">
-        <v>0.68</v>
-      </c>
-      <c r="G92">
-        <v>0.01</v>
-      </c>
-      <c r="H92">
-        <v>0.05</v>
+      <c r="F108">
+        <v>0.67</v>
+      </c>
+      <c r="G108">
+        <v>-3.1</v>
+      </c>
+      <c r="H108">
+        <v>-1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>2010</v>
+      </c>
+      <c r="B109" t="s">
+        <v>6</v>
+      </c>
+      <c r="C109">
+        <v>-75.040000000000006</v>
+      </c>
+      <c r="D109">
+        <v>12.23</v>
+      </c>
+      <c r="E109">
+        <v>10.78</v>
+      </c>
+      <c r="F109">
+        <v>11.71</v>
+      </c>
+      <c r="G109">
+        <v>-79.150000000000006</v>
+      </c>
+      <c r="H109">
+        <v>-54.06</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>33</v>
+      </c>
+      <c r="C110" s="1">
+        <v>22.36</v>
+      </c>
+      <c r="D110" s="1">
+        <v>19.38</v>
+      </c>
+      <c r="E110" s="1">
+        <v>18.190000000000001</v>
+      </c>
+      <c r="F110" s="1">
+        <v>19.43</v>
+      </c>
+      <c r="G110" s="1">
+        <v>46.93</v>
+      </c>
+      <c r="H110" s="1">
+        <v>55.07</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>18</v>
+      </c>
+      <c r="C111" s="1">
+        <v>100</v>
+      </c>
+      <c r="D111" s="1">
+        <v>65.569999999999993</v>
+      </c>
+      <c r="E111" s="1">
+        <v>54.74</v>
+      </c>
+      <c r="F111" s="1">
+        <v>65.55</v>
+      </c>
+      <c r="G111" s="1">
+        <v>100</v>
+      </c>
+      <c r="H111" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>19</v>
+      </c>
+      <c r="C112" s="1">
+        <v>332.4</v>
+      </c>
+      <c r="D112" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="E112" s="1">
+        <v>0</v>
+      </c>
+      <c r="F112" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="G112" s="1">
+        <v>431.8</v>
+      </c>
+      <c r="H112" s="1">
+        <v>320.3</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>34</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>15.58</v>
+      </c>
+      <c r="E113">
+        <v>12.07</v>
+      </c>
+      <c r="F113">
+        <v>14.78</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C3:K3">
+    <cfRule type="top10" dxfId="265" priority="209" rank="1"/>
+    <cfRule type="top10" dxfId="264" priority="211" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:K4">
+    <cfRule type="top10" dxfId="263" priority="207" rank="1"/>
+    <cfRule type="top10" dxfId="262" priority="208" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:K5">
+    <cfRule type="top10" dxfId="261" priority="205" rank="1"/>
+    <cfRule type="top10" dxfId="260" priority="206" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:K9">
+    <cfRule type="top10" dxfId="259" priority="203" rank="1"/>
+    <cfRule type="top10" dxfId="258" priority="204" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:K6">
+    <cfRule type="top10" dxfId="257" priority="201" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="256" priority="202" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7:K7">
+    <cfRule type="top10" dxfId="255" priority="199" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="254" priority="200" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8:K8">
+    <cfRule type="top10" dxfId="253" priority="197" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="252" priority="198" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:K17">
+    <cfRule type="top10" dxfId="251" priority="195" rank="1"/>
+    <cfRule type="top10" dxfId="250" priority="196" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18:K18">
+    <cfRule type="top10" dxfId="249" priority="193" rank="1"/>
+    <cfRule type="top10" dxfId="248" priority="194" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19:K19">
+    <cfRule type="top10" dxfId="247" priority="191" rank="1"/>
+    <cfRule type="top10" dxfId="246" priority="192" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23:K23">
+    <cfRule type="top10" dxfId="245" priority="189" rank="1"/>
+    <cfRule type="top10" dxfId="244" priority="190" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20:K20">
+    <cfRule type="top10" dxfId="243" priority="187" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="242" priority="188" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21:K21">
+    <cfRule type="top10" dxfId="241" priority="185" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="240" priority="186" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22:K22">
+    <cfRule type="top10" dxfId="239" priority="183" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="238" priority="184" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24:K24">
+    <cfRule type="top10" dxfId="237" priority="181" rank="1"/>
+    <cfRule type="top10" dxfId="236" priority="182" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25:K25">
+    <cfRule type="top10" dxfId="235" priority="179" rank="1"/>
+    <cfRule type="top10" dxfId="234" priority="180" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26:K26">
+    <cfRule type="top10" dxfId="233" priority="177" rank="1"/>
+    <cfRule type="top10" dxfId="232" priority="178" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30:K30">
+    <cfRule type="top10" dxfId="231" priority="175" rank="1"/>
+    <cfRule type="top10" dxfId="230" priority="176" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27:K27">
+    <cfRule type="top10" dxfId="229" priority="173" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="228" priority="174" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28:K28">
+    <cfRule type="top10" dxfId="227" priority="171" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="226" priority="172" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29:K29">
+    <cfRule type="top10" dxfId="225" priority="169" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="224" priority="170" bottom="1" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10:K10">
     <cfRule type="top10" dxfId="223" priority="167" rank="1"/>
-    <cfRule type="top10" dxfId="222" priority="169" rank="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:K4">
+    <cfRule type="top10" dxfId="222" priority="168" rank="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11:K11">
     <cfRule type="top10" dxfId="221" priority="165" rank="1"/>
     <cfRule type="top10" dxfId="220" priority="166" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:K5">
+  <conditionalFormatting sqref="C12:K12">
     <cfRule type="top10" dxfId="219" priority="163" rank="1"/>
     <cfRule type="top10" dxfId="218" priority="164" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C9:K9">
+  <conditionalFormatting sqref="C16:K16">
     <cfRule type="top10" dxfId="217" priority="161" rank="1"/>
     <cfRule type="top10" dxfId="216" priority="162" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6:K6">
+  <conditionalFormatting sqref="C13:K13">
     <cfRule type="top10" dxfId="215" priority="159" bottom="1" rank="1"/>
     <cfRule type="top10" dxfId="214" priority="160" bottom="1" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C7:K7">
+  <conditionalFormatting sqref="C14:K14">
     <cfRule type="top10" dxfId="213" priority="157" bottom="1" rank="1"/>
     <cfRule type="top10" dxfId="212" priority="158" bottom="1" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C8:K8">
+  <conditionalFormatting sqref="C15:K15">
     <cfRule type="top10" dxfId="211" priority="155" bottom="1" rank="1"/>
     <cfRule type="top10" dxfId="210" priority="156" bottom="1" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C17:K17">
+  <conditionalFormatting sqref="C41:K41">
     <cfRule type="top10" dxfId="209" priority="153" rank="1"/>
     <cfRule type="top10" dxfId="208" priority="154" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C18:K18">
+  <conditionalFormatting sqref="C42:K42">
     <cfRule type="top10" dxfId="207" priority="151" rank="1"/>
     <cfRule type="top10" dxfId="206" priority="152" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C19:K19">
+  <conditionalFormatting sqref="C43:K43">
     <cfRule type="top10" dxfId="205" priority="149" rank="1"/>
     <cfRule type="top10" dxfId="204" priority="150" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C23:K23">
+  <conditionalFormatting sqref="C47:K47">
     <cfRule type="top10" dxfId="203" priority="147" rank="1"/>
     <cfRule type="top10" dxfId="202" priority="148" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C20:K20">
+  <conditionalFormatting sqref="C44:K44">
     <cfRule type="top10" dxfId="201" priority="145" bottom="1" rank="1"/>
     <cfRule type="top10" dxfId="200" priority="146" bottom="1" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21:K21">
+  <conditionalFormatting sqref="C45:K45">
     <cfRule type="top10" dxfId="199" priority="143" bottom="1" rank="1"/>
     <cfRule type="top10" dxfId="198" priority="144" bottom="1" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C22:K22">
+  <conditionalFormatting sqref="C46:K46">
     <cfRule type="top10" dxfId="197" priority="141" bottom="1" rank="1"/>
     <cfRule type="top10" dxfId="196" priority="142" bottom="1" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24:K24">
+  <conditionalFormatting sqref="C55:K55">
     <cfRule type="top10" dxfId="195" priority="139" rank="1"/>
     <cfRule type="top10" dxfId="194" priority="140" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C25:K25">
+  <conditionalFormatting sqref="C56:K56">
     <cfRule type="top10" dxfId="193" priority="137" rank="1"/>
     <cfRule type="top10" dxfId="192" priority="138" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26:K26">
+  <conditionalFormatting sqref="C57:K57">
     <cfRule type="top10" dxfId="191" priority="135" rank="1"/>
     <cfRule type="top10" dxfId="190" priority="136" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C30:K30">
+  <conditionalFormatting sqref="C61:K61">
     <cfRule type="top10" dxfId="189" priority="133" rank="1"/>
     <cfRule type="top10" dxfId="188" priority="134" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C27:K27">
+  <conditionalFormatting sqref="C58:K58">
     <cfRule type="top10" dxfId="187" priority="131" bottom="1" rank="1"/>
     <cfRule type="top10" dxfId="186" priority="132" bottom="1" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28:K28">
+  <conditionalFormatting sqref="C59:K59">
     <cfRule type="top10" dxfId="185" priority="129" bottom="1" rank="1"/>
     <cfRule type="top10" dxfId="184" priority="130" bottom="1" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29:K29">
+  <conditionalFormatting sqref="C60:K60">
     <cfRule type="top10" dxfId="183" priority="127" bottom="1" rank="1"/>
     <cfRule type="top10" dxfId="182" priority="128" bottom="1" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C10:K10">
+  <conditionalFormatting sqref="C62:K62">
     <cfRule type="top10" dxfId="181" priority="125" rank="1"/>
     <cfRule type="top10" dxfId="180" priority="126" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C11:K11">
+  <conditionalFormatting sqref="C63:K63">
     <cfRule type="top10" dxfId="179" priority="123" rank="1"/>
     <cfRule type="top10" dxfId="178" priority="124" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12:K12">
+  <conditionalFormatting sqref="C64:K64">
     <cfRule type="top10" dxfId="177" priority="121" rank="1"/>
     <cfRule type="top10" dxfId="176" priority="122" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C16:K16">
+  <conditionalFormatting sqref="C68:K68">
     <cfRule type="top10" dxfId="175" priority="119" rank="1"/>
     <cfRule type="top10" dxfId="174" priority="120" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C13:K13">
+  <conditionalFormatting sqref="C65:K65">
     <cfRule type="top10" dxfId="173" priority="117" bottom="1" rank="1"/>
     <cfRule type="top10" dxfId="172" priority="118" bottom="1" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C14:K14">
+  <conditionalFormatting sqref="C66:K66">
     <cfRule type="top10" dxfId="171" priority="115" bottom="1" rank="1"/>
     <cfRule type="top10" dxfId="170" priority="116" bottom="1" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15:K15">
+  <conditionalFormatting sqref="C67:K67">
     <cfRule type="top10" dxfId="169" priority="113" bottom="1" rank="1"/>
     <cfRule type="top10" dxfId="168" priority="114" bottom="1" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C34:K34">
+  <conditionalFormatting sqref="C48:K48">
     <cfRule type="top10" dxfId="167" priority="111" rank="1"/>
     <cfRule type="top10" dxfId="166" priority="112" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C35:K35">
+  <conditionalFormatting sqref="C49:K49">
     <cfRule type="top10" dxfId="165" priority="109" rank="1"/>
     <cfRule type="top10" dxfId="164" priority="110" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C36:K36">
+  <conditionalFormatting sqref="C50:K50">
     <cfRule type="top10" dxfId="163" priority="107" rank="1"/>
     <cfRule type="top10" dxfId="162" priority="108" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C40:K40">
+  <conditionalFormatting sqref="C54:K54">
     <cfRule type="top10" dxfId="161" priority="105" rank="1"/>
     <cfRule type="top10" dxfId="160" priority="106" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C37:K37">
+  <conditionalFormatting sqref="C51:K51">
     <cfRule type="top10" dxfId="159" priority="103" bottom="1" rank="1"/>
     <cfRule type="top10" dxfId="158" priority="104" bottom="1" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C38:K38">
+  <conditionalFormatting sqref="C52:K52">
     <cfRule type="top10" dxfId="157" priority="101" bottom="1" rank="1"/>
     <cfRule type="top10" dxfId="156" priority="102" bottom="1" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C39:K39">
+  <conditionalFormatting sqref="C53:K53">
     <cfRule type="top10" dxfId="155" priority="99" bottom="1" rank="1"/>
     <cfRule type="top10" dxfId="154" priority="100" bottom="1" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C48:K48">
+  <conditionalFormatting sqref="C79:K79">
     <cfRule type="top10" dxfId="153" priority="97" rank="1"/>
     <cfRule type="top10" dxfId="152" priority="98" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C49:K49">
+  <conditionalFormatting sqref="C80:K80">
     <cfRule type="top10" dxfId="151" priority="95" rank="1"/>
     <cfRule type="top10" dxfId="150" priority="96" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C50:K50">
+  <conditionalFormatting sqref="C81:K81">
     <cfRule type="top10" dxfId="149" priority="93" rank="1"/>
     <cfRule type="top10" dxfId="148" priority="94" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C54:K54">
+  <conditionalFormatting sqref="C85:K85">
     <cfRule type="top10" dxfId="147" priority="91" rank="1"/>
     <cfRule type="top10" dxfId="146" priority="92" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C51:K51">
+  <conditionalFormatting sqref="C82:K82">
     <cfRule type="top10" dxfId="145" priority="89" bottom="1" rank="1"/>
     <cfRule type="top10" dxfId="144" priority="90" bottom="1" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C52:K52">
+  <conditionalFormatting sqref="C83:K83">
     <cfRule type="top10" dxfId="143" priority="87" bottom="1" rank="1"/>
     <cfRule type="top10" dxfId="142" priority="88" bottom="1" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C53:K53">
+  <conditionalFormatting sqref="C84:K84">
     <cfRule type="top10" dxfId="141" priority="85" bottom="1" rank="1"/>
     <cfRule type="top10" dxfId="140" priority="86" bottom="1" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C55:K55">
+  <conditionalFormatting sqref="C93:K93">
     <cfRule type="top10" dxfId="139" priority="83" rank="1"/>
     <cfRule type="top10" dxfId="138" priority="84" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C56:K56">
+  <conditionalFormatting sqref="C94:K94">
     <cfRule type="top10" dxfId="137" priority="81" rank="1"/>
     <cfRule type="top10" dxfId="136" priority="82" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C57:K57">
+  <conditionalFormatting sqref="C95:K95">
     <cfRule type="top10" dxfId="135" priority="79" rank="1"/>
     <cfRule type="top10" dxfId="134" priority="80" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C61:K61">
+  <conditionalFormatting sqref="C99:K99">
     <cfRule type="top10" dxfId="133" priority="77" rank="1"/>
     <cfRule type="top10" dxfId="132" priority="78" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C58:K58">
+  <conditionalFormatting sqref="C96:K96">
     <cfRule type="top10" dxfId="131" priority="75" bottom="1" rank="1"/>
     <cfRule type="top10" dxfId="130" priority="76" bottom="1" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C59:K59">
+  <conditionalFormatting sqref="C97:K97">
     <cfRule type="top10" dxfId="129" priority="73" bottom="1" rank="1"/>
     <cfRule type="top10" dxfId="128" priority="74" bottom="1" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C60:K60">
+  <conditionalFormatting sqref="C98:K98">
     <cfRule type="top10" dxfId="127" priority="71" bottom="1" rank="1"/>
     <cfRule type="top10" dxfId="126" priority="72" bottom="1" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C41:K41">
+  <conditionalFormatting sqref="C100:K100">
     <cfRule type="top10" dxfId="125" priority="69" rank="1"/>
     <cfRule type="top10" dxfId="124" priority="70" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C42:K42">
+  <conditionalFormatting sqref="C101:K101">
     <cfRule type="top10" dxfId="123" priority="67" rank="1"/>
     <cfRule type="top10" dxfId="122" priority="68" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C43:K43">
+  <conditionalFormatting sqref="C102:K102">
     <cfRule type="top10" dxfId="121" priority="65" rank="1"/>
     <cfRule type="top10" dxfId="120" priority="66" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C47:K47">
+  <conditionalFormatting sqref="C106:K106">
     <cfRule type="top10" dxfId="119" priority="63" rank="1"/>
     <cfRule type="top10" dxfId="118" priority="64" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C44:K44">
+  <conditionalFormatting sqref="C103:K103">
     <cfRule type="top10" dxfId="117" priority="61" bottom="1" rank="1"/>
     <cfRule type="top10" dxfId="116" priority="62" bottom="1" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C45:K45">
+  <conditionalFormatting sqref="C104:K104">
     <cfRule type="top10" dxfId="115" priority="59" bottom="1" rank="1"/>
     <cfRule type="top10" dxfId="114" priority="60" bottom="1" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C46:K46">
+  <conditionalFormatting sqref="C105:K105">
     <cfRule type="top10" dxfId="113" priority="57" bottom="1" rank="1"/>
     <cfRule type="top10" dxfId="112" priority="58" bottom="1" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C65:K65">
+  <conditionalFormatting sqref="C86:K86">
     <cfRule type="top10" dxfId="111" priority="55" rank="1"/>
     <cfRule type="top10" dxfId="110" priority="56" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C66:K66">
+  <conditionalFormatting sqref="C87:K87">
     <cfRule type="top10" dxfId="109" priority="53" rank="1"/>
     <cfRule type="top10" dxfId="108" priority="54" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C67:K67">
+  <conditionalFormatting sqref="C88:K88">
     <cfRule type="top10" dxfId="107" priority="51" rank="1"/>
     <cfRule type="top10" dxfId="106" priority="52" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C71:K71">
+  <conditionalFormatting sqref="C92:K92">
     <cfRule type="top10" dxfId="105" priority="49" rank="1"/>
     <cfRule type="top10" dxfId="104" priority="50" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C68:K68">
+  <conditionalFormatting sqref="C89:K89">
     <cfRule type="top10" dxfId="103" priority="47" bottom="1" rank="1"/>
     <cfRule type="top10" dxfId="102" priority="48" bottom="1" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C69:K69">
+  <conditionalFormatting sqref="C90:K90">
     <cfRule type="top10" dxfId="101" priority="45" bottom="1" rank="1"/>
     <cfRule type="top10" dxfId="100" priority="46" bottom="1" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C70:K70">
+  <conditionalFormatting sqref="C91:K91">
     <cfRule type="top10" dxfId="99" priority="43" bottom="1" rank="1"/>
     <cfRule type="top10" dxfId="98" priority="44" bottom="1" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C79:K79">
+  <conditionalFormatting sqref="C31:K31">
     <cfRule type="top10" dxfId="97" priority="41" rank="1"/>
     <cfRule type="top10" dxfId="96" priority="42" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C80:K80">
+  <conditionalFormatting sqref="C32:K32">
     <cfRule type="top10" dxfId="95" priority="39" rank="1"/>
     <cfRule type="top10" dxfId="94" priority="40" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C81:K81">
+  <conditionalFormatting sqref="C33:K33">
     <cfRule type="top10" dxfId="93" priority="37" rank="1"/>
     <cfRule type="top10" dxfId="92" priority="38" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C85:K85">
+  <conditionalFormatting sqref="C37:K37">
     <cfRule type="top10" dxfId="91" priority="35" rank="1"/>
     <cfRule type="top10" dxfId="90" priority="36" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C82:K82">
+  <conditionalFormatting sqref="C34:K34">
     <cfRule type="top10" dxfId="89" priority="33" bottom="1" rank="1"/>
     <cfRule type="top10" dxfId="88" priority="34" bottom="1" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C83:K83">
+  <conditionalFormatting sqref="C35:K35">
     <cfRule type="top10" dxfId="87" priority="31" bottom="1" rank="1"/>
     <cfRule type="top10" dxfId="86" priority="32" bottom="1" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C84:K84">
+  <conditionalFormatting sqref="C36:K36">
     <cfRule type="top10" dxfId="85" priority="29" bottom="1" rank="1"/>
     <cfRule type="top10" dxfId="84" priority="30" bottom="1" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C86:K86">
+  <conditionalFormatting sqref="C69:K69">
     <cfRule type="top10" dxfId="83" priority="27" rank="1"/>
     <cfRule type="top10" dxfId="82" priority="28" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C87:K87">
+  <conditionalFormatting sqref="C70:K70">
     <cfRule type="top10" dxfId="81" priority="25" rank="1"/>
     <cfRule type="top10" dxfId="80" priority="26" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C88:K88">
+  <conditionalFormatting sqref="C71:K71">
     <cfRule type="top10" dxfId="79" priority="23" rank="1"/>
     <cfRule type="top10" dxfId="78" priority="24" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C92:K92">
+  <conditionalFormatting sqref="C75:K75">
     <cfRule type="top10" dxfId="77" priority="21" rank="1"/>
     <cfRule type="top10" dxfId="76" priority="22" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C89:K89">
+  <conditionalFormatting sqref="C72:K72">
     <cfRule type="top10" dxfId="75" priority="19" bottom="1" rank="1"/>
     <cfRule type="top10" dxfId="74" priority="20" bottom="1" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C90:K90">
+  <conditionalFormatting sqref="C73:K73">
     <cfRule type="top10" dxfId="73" priority="17" bottom="1" rank="1"/>
     <cfRule type="top10" dxfId="72" priority="18" bottom="1" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C91:K91">
+  <conditionalFormatting sqref="C74:K74">
     <cfRule type="top10" dxfId="71" priority="15" bottom="1" rank="1"/>
     <cfRule type="top10" dxfId="70" priority="16" bottom="1" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C72:K72">
+  <conditionalFormatting sqref="C107:K107">
     <cfRule type="top10" dxfId="69" priority="13" rank="1"/>
     <cfRule type="top10" dxfId="68" priority="14" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C73:K73">
+  <conditionalFormatting sqref="C108:K108">
     <cfRule type="top10" dxfId="67" priority="11" rank="1"/>
     <cfRule type="top10" dxfId="66" priority="12" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C74:K74">
+  <conditionalFormatting sqref="C109:K109">
     <cfRule type="top10" dxfId="65" priority="9" rank="1"/>
     <cfRule type="top10" dxfId="64" priority="10" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C78:K78">
+  <conditionalFormatting sqref="C113:K113">
     <cfRule type="top10" dxfId="63" priority="7" rank="1"/>
     <cfRule type="top10" dxfId="62" priority="8" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C75:K75">
+  <conditionalFormatting sqref="C110:K110">
     <cfRule type="top10" dxfId="61" priority="5" bottom="1" rank="1"/>
     <cfRule type="top10" dxfId="60" priority="6" bottom="1" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C76:K76">
+  <conditionalFormatting sqref="C111:K111">
     <cfRule type="top10" dxfId="59" priority="3" bottom="1" rank="1"/>
     <cfRule type="top10" dxfId="58" priority="4" bottom="1" rank="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C77:K77">
+  <conditionalFormatting sqref="C112:K112">
     <cfRule type="top10" dxfId="57" priority="1" bottom="1" rank="1"/>
     <cfRule type="top10" dxfId="56" priority="2" bottom="1" rank="2"/>
   </conditionalFormatting>
@@ -5118,7 +6038,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
